--- a/xlsx/暴力_intext.xlsx
+++ b/xlsx/暴力_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8A%AF%E7%BD%AA%E5%AD%B8</t>
   </si>
   <si>
-    <t>犯罪學</t>
+    <t>犯罪学</t>
   </si>
   <si>
     <t>政策_政策_政治_暴力</t>
@@ -35,25 +35,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8A%AF%E7%BD%AA%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>犯罪生物學</t>
+    <t>犯罪生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%AF%E7%BD%AA%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>犯罪社會學</t>
+    <t>犯罪社会学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%AF%E7%BD%AA%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>犯罪心理學</t>
+    <t>犯罪心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%91%E7%BD%B0%E5%AD%B8</t>
   </si>
   <si>
-    <t>刑罰學</t>
+    <t>刑罚学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%91%E4%BA%8B%E6%94%BF%E7%AD%96</t>
@@ -65,25 +65,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%97%E5%AE%B3%E8%80%85%E5%AD%B8</t>
   </si>
   <si>
-    <t>受害者學</t>
+    <t>受害者学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98%E8%AB%96</t>
   </si>
   <si>
-    <t>知識論</t>
+    <t>知识论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E7%A4%BE%E6%9C%83%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>芝加哥社會學派</t>
+    <t>芝加哥社会学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E5%85%8B%E7%A6%8F%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>法蘭克福學派</t>
+    <t>法兰克福学派</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Marxist_criminology</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%80%A7%E4%B8%BB%E7%BE%A9%E7%8A%AF%E7%BD%AA%E5%AD%B8</t>
   </si>
   <si>
-    <t>女性主義犯罪學</t>
+    <t>女性主义犯罪学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%87%E8%90%A8%E9%9B%B7%C2%B7%E9%BE%99%E5%8B%83%E7%BD%97%E6%A2%AD</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%A5%9E%E7%97%85%E5%AD%B8%E6%A8%A1%E5%BC%8F_(%E7%8A%AF%E7%BD%AA%E5%AD%B8)</t>
   </si>
   <si>
-    <t>精神病學模式 (犯罪學)</t>
+    <t>精神病学模式 (犯罪学)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A7%E5%BC%A0%E7%90%86%E8%AE%BA</t>
@@ -119,61 +119,61 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%AE%E5%88%A5%E6%8E%A5%E8%A7%B8%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>差別接觸理論</t>
+    <t>差别接触理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E6%8E%A7%E5%88%B6%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>社會控制理論</t>
+    <t>社会控制理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E7%B1%A4%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>標籤理論</t>
+    <t>标籤理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%B8%83%E8%90%8A%E7%89%B9%E6%87%B7%E7%89%B9_(%E7%8A%AF%E7%BD%AA%E5%AD%B8)</t>
   </si>
   <si>
-    <t>約翰·布萊特懷特 (犯罪學)</t>
+    <t>约翰·布莱特怀特 (犯罪学)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%80%A7%E9%81%B8%E6%93%87%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>理性選擇理論</t>
+    <t>理性选择理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A0%B4%E7%AA%97%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>破窗理論</t>
+    <t>破窗理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E5%A0%B1%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>應報理論</t>
+    <t>应报理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9A%87%E9%98%BB%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>嚇阻理論</t>
+    <t>吓阻理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%90%E9%98%B2%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>預防理論</t>
+    <t>预防理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%AE%E5%BE%A9%E6%80%A7%E5%8F%B8%E6%B3%95</t>
   </si>
   <si>
-    <t>修復性司法</t>
+    <t>修复性司法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%AF%E7%BD%AA</t>
@@ -197,13 +197,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E9%A0%98%E7%8A%AF%E7%BD%AA</t>
   </si>
   <si>
-    <t>白領犯罪</t>
+    <t>白领犯罪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E9%9A%8E%E7%B4%9A</t>
   </si>
   <si>
-    <t>社會階級</t>
+    <t>社会阶级</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Social_disorganization_theory</t>
@@ -221,13 +221,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E8%A1%9D%E7%AA%81</t>
   </si>
   <si>
-    <t>文化衝突</t>
+    <t>文化冲突</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E7%B9%94%E5%9E%8B%E7%8A%AF%E7%BD%AA</t>
   </si>
   <si>
-    <t>組織型犯罪</t>
+    <t>组织型犯罪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A2%AB%E5%AE%B3%E4%BA%BA</t>
@@ -263,13 +263,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%91%E7%BD%B0</t>
   </si>
   <si>
-    <t>刑罰</t>
+    <t>刑罚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%89%E8%99%95%E5%88%86</t>
   </si>
   <si>
-    <t>保安處分</t>
+    <t>保安处分</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%91%E7%8B%B1</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A6%8F%E8%A8%93%E8%88%87%E6%87%B2%E7%BD%B0</t>
   </si>
   <si>
-    <t>規訓與懲罰</t>
+    <t>规训与惩罚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%96%AF%E7%99%AB%E4%B8%8E%E6%96%87%E6%98%8E</t>
@@ -293,13 +293,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E5%88%91%E5%AD%98%E5%BB%A2%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>死刑存廢問題</t>
+    <t>死刑存废问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%89%E5%90%91%E8%99%95%E9%81%87</t>
   </si>
   <si>
-    <t>轉向處遇</t>
+    <t>转向处遇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%91%E5%B9%B4%E6%84%9F%E5%8C%96%E9%99%A2</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>心理學</t>
+    <t>心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%A5%9E%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>精神醫學</t>
+    <t>精神医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%8C%BB%E5%AD%A6</t>
@@ -353,19 +353,19 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%8A%AF%E7%BD%AA%E5%AD%B8</t>
   </si>
   <si>
-    <t>Template talk-犯罪學</t>
+    <t>Template talk-犯罪学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
+    <t>联合国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%95%B8%E6%9A%B4%E5%8A%9B</t>
   </si>
   <si>
-    <t>多數暴力</t>
+    <t>多数暴力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AA%E4%BA%BA</t>
@@ -377,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8A%AF%E7%BD%AA%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>犯罪集團</t>
+    <t>犯罪集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%B6%E6%9D%80</t>
@@ -425,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%B1%E6%B2%BB</t>
   </si>
   <si>
-    <t>統治</t>
+    <t>统治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E</t>
@@ -503,19 +503,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>戰爭</t>
+    <t>战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B3%95</t>
   </si>
   <si>
-    <t>國際法</t>
+    <t>国际法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B3%95%E5%BA%AD</t>
   </si>
   <si>
-    <t>國際法庭</t>
+    <t>国际法庭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E5%BA%AD%E6%9A%B4%E5%8A%9B</t>
@@ -533,7 +533,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%99%90%E5%BE%85%E5%85%92%E7%AB%A5</t>
   </si>
   <si>
-    <t>虐待兒童</t>
+    <t>虐待儿童</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%90%E5%BE%85%E8%80%81%E4%BA%BA</t>
@@ -563,19 +563,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%94%9F%E8%A7%80</t>
   </si>
   <si>
-    <t>人生觀</t>
+    <t>人生观</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%BD%B1</t>
   </si>
   <si>
-    <t>電影</t>
+    <t>电影</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E7%8E%A9</t>
   </si>
   <si>
-    <t>電玩</t>
+    <t>电玩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%A1%E4%BB%B6%E5%8F%8D%E5%B0%84</t>
@@ -587,7 +587,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%9A%9B%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>人際關係</t>
+    <t>人际关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%83%85%E7%BB%AA%E5%95%86%E6%95%B0</t>
@@ -617,13 +617,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%83%85%E7%B7%92%E9%9C%B8%E5%87%8C</t>
   </si>
   <si>
-    <t>情緒霸凌</t>
+    <t>情绪霸凌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%92%E8%A9%B1</t>
   </si>
   <si>
-    <t>髒話</t>
+    <t>脏话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E6%9A%B4%E5%8A%9B</t>
@@ -635,13 +635,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%88%E9%BB%83%E5%BE%88%E6%9A%B4%E5%8A%9B</t>
   </si>
   <si>
-    <t>很黃很暴力</t>
+    <t>很黄很暴力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -653,7 +653,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>

--- a/xlsx/暴力_intext.xlsx
+++ b/xlsx/暴力_intext.xlsx
@@ -29,7 +29,7 @@
     <t>犯罪學</t>
   </si>
   <si>
-    <t>政策_政策_政治_暴力</t>
+    <t>体育运动_体育运动_拳击_暴力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%AF%E7%BD%AA%E7%94%9F%E7%89%A9%E5%AD%B8</t>
